--- a/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/CoTrAQ-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>27087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18254</v>
+        <v>18353</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37510</v>
+        <v>38085</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2294454966298932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1546205589659418</v>
+        <v>0.155458960416983</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3177345587268977</v>
+        <v>0.3226026376446698</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -763,19 +763,19 @@
         <v>19764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12572</v>
+        <v>12966</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28856</v>
+        <v>29257</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2343984349285305</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1491021797316882</v>
+        <v>0.1537766203249216</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3422288128310564</v>
+        <v>0.3469838205623074</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>42</v>
@@ -784,19 +784,19 @@
         <v>46851</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34366</v>
+        <v>35124</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>59725</v>
+        <v>59371</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2315091068652153</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1698142843453499</v>
+        <v>0.1735588345319475</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2951243546850394</v>
+        <v>0.2933732232316478</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>14554</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8322</v>
+        <v>8455</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23287</v>
+        <v>23884</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1232793642461856</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07049589310782611</v>
+        <v>0.0716199559443006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1972572854317699</v>
+        <v>0.2023069128030908</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -834,19 +834,19 @@
         <v>8392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3921</v>
+        <v>4008</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15202</v>
+        <v>15274</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09953004619058035</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0465077650988547</v>
+        <v>0.04753344402948839</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1802966273041885</v>
+        <v>0.1811468242194661</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -855,19 +855,19 @@
         <v>22946</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>15468</v>
+        <v>14887</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33660</v>
+        <v>33950</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1133843619533141</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07643068110555296</v>
+        <v>0.07356079080956598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1663273919771842</v>
+        <v>0.1677573427417939</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>76415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65789</v>
+        <v>65308</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>86834</v>
+        <v>86570</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6472751391239212</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5572657577636153</v>
+        <v>0.5531990761907746</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7355363002563887</v>
+        <v>0.7332950530677824</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>49</v>
@@ -905,19 +905,19 @@
         <v>56162</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46729</v>
+        <v>46122</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>64457</v>
+        <v>64084</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6660715188808891</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5542035229503659</v>
+        <v>0.5469998260323645</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7644495831638355</v>
+        <v>0.7600288736185803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>125</v>
@@ -926,19 +926,19 @@
         <v>132577</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>118521</v>
+        <v>117271</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>146183</v>
+        <v>145453</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6551065311814706</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5856540815012594</v>
+        <v>0.5794756265557327</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7223392485357207</v>
+        <v>0.7187318145653003</v>
       </c>
     </row>
     <row r="7">
@@ -1030,19 +1030,19 @@
         <v>19158</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11570</v>
+        <v>12316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28575</v>
+        <v>28823</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1125415259585916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06796361329824603</v>
+        <v>0.0723465171758028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1678596056282278</v>
+        <v>0.1693164648629962</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>13</v>
@@ -1051,19 +1051,19 @@
         <v>14867</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8506</v>
+        <v>8557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>23841</v>
+        <v>24015</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1284940026276012</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07351792689604159</v>
+        <v>0.07396235515781249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2060607715747734</v>
+        <v>0.2075592566138438</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>33</v>
@@ -1072,19 +1072,19 @@
         <v>34025</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>24302</v>
+        <v>24868</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>47134</v>
+        <v>47411</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1189965269411779</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08499016623518307</v>
+        <v>0.08696974015580598</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1648410370914788</v>
+        <v>0.1658110988396023</v>
       </c>
     </row>
     <row r="9">
@@ -1101,19 +1101,19 @@
         <v>18457</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11459</v>
+        <v>11108</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>28854</v>
+        <v>27366</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1084203011021447</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06731255070379755</v>
+        <v>0.06525290264654542</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.169497422358369</v>
+        <v>0.1607558799211779</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>19</v>
@@ -1122,19 +1122,19 @@
         <v>21059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13097</v>
+        <v>13251</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>32681</v>
+        <v>29952</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1820101492240206</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1131957702344408</v>
+        <v>0.1145323141779374</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2824658147739789</v>
+        <v>0.2588801103703539</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>38</v>
@@ -1143,19 +1143,19 @@
         <v>39515</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>28658</v>
+        <v>29676</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>54643</v>
+        <v>53378</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1381976549131612</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1002252550087934</v>
+        <v>0.1037864991687992</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1911019239171273</v>
+        <v>0.186679983544433</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>132619</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>120980</v>
+        <v>120510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142475</v>
+        <v>142469</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7790381729392637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7106660643252262</v>
+        <v>0.7079085806760578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8369348334667303</v>
+        <v>0.8368984825242295</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>73</v>
@@ -1193,19 +1193,19 @@
         <v>79775</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68380</v>
+        <v>69012</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>89311</v>
+        <v>89146</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6894958481483782</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5910088439772936</v>
+        <v>0.596475646032511</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7719168765805252</v>
+        <v>0.7704959636277278</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>193</v>
@@ -1214,19 +1214,19 @@
         <v>212393</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>195875</v>
+        <v>194952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>225502</v>
+        <v>225332</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7428058181456609</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6850359012502991</v>
+        <v>0.6818084217998238</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7886517754975512</v>
+        <v>0.7880570550183486</v>
       </c>
     </row>
     <row r="11">
@@ -1318,19 +1318,19 @@
         <v>16169</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10233</v>
+        <v>9617</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>24975</v>
+        <v>24130</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1159571278897465</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07338794654786923</v>
+        <v>0.06897158978728866</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1791103043588811</v>
+        <v>0.1730460692222917</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -1339,19 +1339,19 @@
         <v>11002</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5492</v>
+        <v>5931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18723</v>
+        <v>18128</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1524318190643426</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07608823600002941</v>
+        <v>0.08216752629880167</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2594068835135259</v>
+        <v>0.2511623330585033</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -1360,19 +1360,19 @@
         <v>27171</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>18577</v>
+        <v>17844</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38653</v>
+        <v>37077</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1283974967200307</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08778813428407348</v>
+        <v>0.08432186970759586</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1826537157611507</v>
+        <v>0.1752103580269621</v>
       </c>
     </row>
     <row r="13">
@@ -1389,19 +1389,19 @@
         <v>22002</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14293</v>
+        <v>14261</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31528</v>
+        <v>31630</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1577848640788422</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1025037380217566</v>
+        <v>0.1022715503516825</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2261025658884461</v>
+        <v>0.2268374563555484</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1410,19 +1410,19 @@
         <v>12945</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6939</v>
+        <v>7580</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20148</v>
+        <v>20563</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1793481649921265</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09614617467607742</v>
+        <v>0.1050247566290558</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2791457891323387</v>
+        <v>0.2849037657517083</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>35</v>
@@ -1431,19 +1431,19 @@
         <v>34946</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25204</v>
+        <v>24882</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47597</v>
+        <v>47683</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1651394271449305</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1191003476110661</v>
+        <v>0.117579457947138</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2249213361743663</v>
+        <v>0.2253246928120122</v>
       </c>
     </row>
     <row r="14">
@@ -1460,19 +1460,19 @@
         <v>101270</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90752</v>
+        <v>89607</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>110622</v>
+        <v>111255</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7262580080314114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6508258701377428</v>
+        <v>0.642613415543662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7933242868351199</v>
+        <v>0.797866361406077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>45</v>
@@ -1481,19 +1481,19 @@
         <v>48229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39751</v>
+        <v>39425</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>56390</v>
+        <v>55084</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6682200159435309</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5507443797033232</v>
+        <v>0.5462309579612058</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.781278300026969</v>
+        <v>0.7631873171587342</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>148</v>
@@ -1502,19 +1502,19 @@
         <v>149500</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>135576</v>
+        <v>134798</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>162962</v>
+        <v>162297</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7064630761350388</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6406671656539352</v>
+        <v>0.6369898872292259</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.770081002443603</v>
+        <v>0.7669385123110293</v>
       </c>
     </row>
     <row r="15">
@@ -1606,19 +1606,19 @@
         <v>14506</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8339</v>
+        <v>7974</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25099</v>
+        <v>25545</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1016599962375156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05844435586182815</v>
+        <v>0.05588528581715164</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1758990737131227</v>
+        <v>0.1790269755385988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -1627,19 +1627,19 @@
         <v>14903</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8256</v>
+        <v>8454</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23408</v>
+        <v>23727</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1524474852148621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08445426765103604</v>
+        <v>0.08648319632809329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2394492197168456</v>
+        <v>0.2427159010909015</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1648,19 +1648,19 @@
         <v>29409</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19428</v>
+        <v>19819</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41306</v>
+        <v>42235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.122308309354913</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08080165735723385</v>
+        <v>0.08242513094988785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1717886964497596</v>
+        <v>0.1756523837917515</v>
       </c>
     </row>
     <row r="17">
@@ -1677,19 +1677,19 @@
         <v>24317</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16897</v>
+        <v>16149</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35577</v>
+        <v>34608</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1704202748815627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1184162114027362</v>
+        <v>0.1131756637975095</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2493306853633884</v>
+        <v>0.2425413722092241</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -1698,19 +1698,19 @@
         <v>15871</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9747</v>
+        <v>9724</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25148</v>
+        <v>25777</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1623491367463512</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09970349136884984</v>
+        <v>0.09946932945875683</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2572505870209144</v>
+        <v>0.2636913269577997</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>38</v>
@@ -1719,19 +1719,19 @@
         <v>40188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>29197</v>
+        <v>28289</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53711</v>
+        <v>52823</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1671388488692637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1214278127113678</v>
+        <v>0.1176525681887432</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2233823887621723</v>
+        <v>0.2196863883086786</v>
       </c>
     </row>
     <row r="18">
@@ -1748,19 +1748,19 @@
         <v>103866</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91531</v>
+        <v>91557</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>113127</v>
+        <v>114893</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7279197288809217</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6414753686323598</v>
+        <v>0.6416573157114918</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.792824643562087</v>
+        <v>0.8051953744353202</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>63</v>
@@ -1769,19 +1769,19 @@
         <v>66983</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>57508</v>
+        <v>55877</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>76760</v>
+        <v>76185</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6852033780387867</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5882852796182495</v>
+        <v>0.5715931493739811</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7852234612084926</v>
+        <v>0.7793433314532348</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -1790,19 +1790,19 @@
         <v>170850</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156115</v>
+        <v>155906</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>184705</v>
+        <v>184975</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7105528417758233</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6492726657457163</v>
+        <v>0.6484045576190652</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7681750228170042</v>
+        <v>0.7693008942899972</v>
       </c>
     </row>
     <row r="19">
@@ -1894,19 +1894,19 @@
         <v>17049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10892</v>
+        <v>9810</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26839</v>
+        <v>25816</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2124008821826912</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1356943899741583</v>
+        <v>0.1222226140283966</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3343745782460199</v>
+        <v>0.3216327943042713</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -1915,19 +1915,19 @@
         <v>20328</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13895</v>
+        <v>13838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28857</v>
+        <v>27728</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3788000002829686</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2589153669466818</v>
+        <v>0.2578647158265265</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5377244018626426</v>
+        <v>0.5166782502776084</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -1936,19 +1936,19 @@
         <v>37377</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>27732</v>
+        <v>27012</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>49836</v>
+        <v>48062</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2790749843061977</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2070574549779593</v>
+        <v>0.2016864263968563</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3720979889102669</v>
+        <v>0.3588535921655138</v>
       </c>
     </row>
     <row r="21">
@@ -1965,19 +1965,19 @@
         <v>13636</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8029</v>
+        <v>7569</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>21275</v>
+        <v>21283</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1698817694164323</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1000258335342804</v>
+        <v>0.09429998824561796</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2650569342026</v>
+        <v>0.2651467009838397</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1986,19 +1986,19 @@
         <v>12902</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7290</v>
+        <v>7172</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20054</v>
+        <v>19170</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2404152612549644</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1358517552220203</v>
+        <v>0.1336352668521443</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3736888970421283</v>
+        <v>0.3572230897649933</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -2007,19 +2007,19 @@
         <v>26538</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>17783</v>
+        <v>18172</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>36104</v>
+        <v>37135</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1981436814485368</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1327789256591443</v>
+        <v>0.1356769405686122</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2695647217047163</v>
+        <v>0.2772647093361538</v>
       </c>
     </row>
     <row r="22">
@@ -2036,19 +2036,19 @@
         <v>49582</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>39133</v>
+        <v>40644</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57735</v>
+        <v>58689</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6177173484008764</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4875375619664781</v>
+        <v>0.5063609039000863</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7192909777216617</v>
+        <v>0.731169230853001</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -2057,19 +2057,19 @@
         <v>20435</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12883</v>
+        <v>13833</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>26888</v>
+        <v>28399</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.380784738462067</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2400574490502029</v>
+        <v>0.2577582255912197</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.501027383209925</v>
+        <v>0.5291972490855139</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -2078,19 +2078,19 @@
         <v>70018</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>57218</v>
+        <v>57330</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>80488</v>
+        <v>82462</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5227813342452655</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4272137630107581</v>
+        <v>0.4280475004826132</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6009591807297786</v>
+        <v>0.615695183593846</v>
       </c>
     </row>
     <row r="23">
@@ -2182,19 +2182,19 @@
         <v>7770</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3671</v>
+        <v>3761</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14047</v>
+        <v>14256</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06999423362999561</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.03306859275780628</v>
+        <v>0.03388065545488537</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1265378627124286</v>
+        <v>0.1284230349374796</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2203,19 +2203,19 @@
         <v>5039</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1966</v>
+        <v>1889</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>10746</v>
+        <v>11280</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09442205324558035</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03683231672378236</v>
+        <v>0.03540098756916416</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2013515057581416</v>
+        <v>0.2113636882392624</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2224,19 +2224,19 @@
         <v>12809</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6761</v>
+        <v>7036</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21115</v>
+        <v>20122</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07792527339317433</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.04113092974957724</v>
+        <v>0.04280135134632337</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1284551132955742</v>
+        <v>0.1224140421376852</v>
       </c>
     </row>
     <row r="25">
@@ -2253,19 +2253,19 @@
         <v>20707</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>13313</v>
+        <v>13034</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30943</v>
+        <v>30891</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1865354016418851</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1199305718237816</v>
+        <v>0.1174109049811481</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2787452736947596</v>
+        <v>0.2782730543918524</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>6</v>
@@ -2274,19 +2274,19 @@
         <v>6136</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2817</v>
+        <v>2107</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13234</v>
+        <v>12303</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1149798605812347</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05277660181129502</v>
+        <v>0.03948336510324899</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2479808338032574</v>
+        <v>0.2305178330161791</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2295,19 +2295,19 @@
         <v>26843</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>17491</v>
+        <v>17643</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38235</v>
+        <v>38365</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1633032896335862</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1064083993230953</v>
+        <v>0.1073322170215824</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2326044999540799</v>
+        <v>0.233394647025868</v>
       </c>
     </row>
     <row r="26">
@@ -2324,19 +2324,19 @@
         <v>82531</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72089</v>
+        <v>71765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>91758</v>
+        <v>91535</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7434703647281192</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6494009420186195</v>
+        <v>0.646488355006151</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8265870989750926</v>
+        <v>0.8245839617326786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>39</v>
@@ -2345,19 +2345,19 @@
         <v>42193</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34242</v>
+        <v>34653</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47192</v>
+        <v>47335</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7905980861731849</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6416116084417599</v>
+        <v>0.6493100915208192</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8842540058239193</v>
+        <v>0.8869349459568999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>116</v>
@@ -2366,19 +2366,19 @@
         <v>124725</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112106</v>
+        <v>113242</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>135889</v>
+        <v>135550</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7587714369732395</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6820060640558244</v>
+        <v>0.6889138291605039</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8266910290198796</v>
+        <v>0.8246309012343599</v>
       </c>
     </row>
     <row r="27">
@@ -2470,19 +2470,19 @@
         <v>37506</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>27150</v>
+        <v>27774</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>49213</v>
+        <v>51131</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1441917597786109</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1043784070599731</v>
+        <v>0.1067774633800227</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1892014134388215</v>
+        <v>0.1965730486316293</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>26</v>
@@ -2491,19 +2491,19 @@
         <v>30114</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20366</v>
+        <v>20703</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>41736</v>
+        <v>41596</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1748036019023407</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1182212610635854</v>
+        <v>0.1201774026757955</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2422650994308709</v>
+        <v>0.2414523501523455</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>61</v>
@@ -2512,19 +2512,19 @@
         <v>67620</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>53189</v>
+        <v>52571</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>86454</v>
+        <v>83787</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1563883696893691</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1230120301325176</v>
+        <v>0.1215842327919007</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1999474593007642</v>
+        <v>0.19377876186018</v>
       </c>
     </row>
     <row r="29">
@@ -2541,19 +2541,19 @@
         <v>42738</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>32094</v>
+        <v>32044</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55981</v>
+        <v>56027</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1643061054093088</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1233850781219713</v>
+        <v>0.1231953327847281</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2152205392684544</v>
+        <v>0.2153974451150388</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -2562,19 +2562,19 @@
         <v>37638</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26999</v>
+        <v>26622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>49200</v>
+        <v>48792</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2184760038787967</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1567238979118731</v>
+        <v>0.1545328538596128</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2855933089612824</v>
+        <v>0.2832218375422236</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>75</v>
@@ -2583,19 +2583,19 @@
         <v>80376</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64315</v>
+        <v>63461</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>100032</v>
+        <v>97523</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1858889006513361</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1487451428442056</v>
+        <v>0.1467695141402461</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2313487768522763</v>
+        <v>0.2255471419680819</v>
       </c>
     </row>
     <row r="30">
@@ -2612,19 +2612,19 @@
         <v>179867</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>164694</v>
+        <v>164250</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>194248</v>
+        <v>194781</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6915021348120803</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.6331683020936737</v>
+        <v>0.6314623963519914</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7467897814384061</v>
+        <v>0.7488393248101337</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>100</v>
@@ -2633,19 +2633,19 @@
         <v>104522</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>90192</v>
+        <v>91885</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>117788</v>
+        <v>117832</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6067203942188626</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5235368939385382</v>
+        <v>0.5333651926918743</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6837248945830008</v>
+        <v>0.6839806430908201</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>268</v>
@@ -2654,19 +2654,19 @@
         <v>284389</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>262626</v>
+        <v>266282</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>303418</v>
+        <v>308314</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6577227296592948</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.6073890396431992</v>
+        <v>0.6158454413900235</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.701730324517252</v>
+        <v>0.7130553241536287</v>
       </c>
     </row>
     <row r="31">
@@ -2758,19 +2758,19 @@
         <v>43788</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>32146</v>
+        <v>31631</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>57416</v>
+        <v>58519</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.123670911860137</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0907903827796528</v>
+        <v>0.0893343579411615</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1621600807160538</v>
+        <v>0.1652749940976593</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>32</v>
@@ -2779,19 +2779,19 @@
         <v>37550</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>27320</v>
+        <v>27171</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>52141</v>
+        <v>50433</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1487215179230614</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1082036421947385</v>
+        <v>0.1076151429664084</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.206507938888219</v>
+        <v>0.1997465016939815</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>72</v>
@@ -2800,19 +2800,19 @@
         <v>81338</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>65844</v>
+        <v>64969</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>100788</v>
+        <v>99339</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1340985629418272</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1085543541924838</v>
+        <v>0.1071105660715353</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1661645597667608</v>
+        <v>0.1637749237662976</v>
       </c>
     </row>
     <row r="33">
@@ -2829,19 +2829,19 @@
         <v>58769</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>46189</v>
+        <v>44614</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>76849</v>
+        <v>73885</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1659828833066611</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1304526458589115</v>
+        <v>0.1260035552022476</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2170448753192141</v>
+        <v>0.2086749923817839</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>40</v>
@@ -2850,19 +2850,19 @@
         <v>43084</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>31070</v>
+        <v>31310</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>57402</v>
+        <v>55912</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.170636685999258</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1230561162190737</v>
+        <v>0.1240065704255382</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2273458775967365</v>
+        <v>0.2214463569406196</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>93</v>
@@ -2871,19 +2871,19 @@
         <v>101853</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>84468</v>
+        <v>83314</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>121517</v>
+        <v>123019</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1679200911554266</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1392585802343855</v>
+        <v>0.1373558091492704</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.200339602464227</v>
+        <v>0.2028150810318694</v>
       </c>
     </row>
     <row r="34">
@@ -2900,19 +2900,19 @@
         <v>251512</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>231890</v>
+        <v>233542</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>268079</v>
+        <v>267954</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.710346204833202</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6549299143473635</v>
+        <v>0.6595937272631449</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7571381507510131</v>
+        <v>0.7567845376818625</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>157</v>
@@ -2921,19 +2921,19 @@
         <v>171853</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>154343</v>
+        <v>155477</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>185999</v>
+        <v>186361</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6806417960776806</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6112899672605953</v>
+        <v>0.6157829905939656</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7366682067229343</v>
+        <v>0.7381012418025877</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>393</v>
@@ -2942,19 +2942,19 @@
         <v>423365</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>398469</v>
+        <v>395132</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>445837</v>
+        <v>445955</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6979813459027462</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6569364346728234</v>
+        <v>0.6514359107652895</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7350294291986377</v>
+        <v>0.7352253222250088</v>
       </c>
     </row>
     <row r="35">
@@ -3046,19 +3046,19 @@
         <v>183033</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>156291</v>
+        <v>158111</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>208641</v>
+        <v>210355</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1330304972273066</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1135938181603708</v>
+        <v>0.1149168300121982</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.151642603299543</v>
+        <v>0.1528877348235676</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>137</v>
@@ -3067,19 +3067,19 @@
         <v>153567</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>132329</v>
+        <v>132752</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>178499</v>
+        <v>180122</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1703000622688544</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1467473428144407</v>
+        <v>0.147216606164275</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.197948588015199</v>
+        <v>0.1997483089284087</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>307</v>
@@ -3088,19 +3088,19 @@
         <v>336601</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>303242</v>
+        <v>302557</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>372747</v>
+        <v>375346</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.147786091608714</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1331397933083776</v>
+        <v>0.1328389583477025</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1636562063974429</v>
+        <v>0.1647972711498612</v>
       </c>
     </row>
     <row r="37">
@@ -3117,19 +3117,19 @@
         <v>215180</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>188168</v>
+        <v>189348</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>245773</v>
+        <v>243640</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1563946849708468</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1367625222447633</v>
+        <v>0.1376198018430581</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1786298360038715</v>
+        <v>0.1770798437200174</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>149</v>
@@ -3138,19 +3138,19 @@
         <v>158026</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>136006</v>
+        <v>136073</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>182016</v>
+        <v>183408</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1752441949134881</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1508252784771349</v>
+        <v>0.1509000997107398</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2018485144813637</v>
+        <v>0.2033919992856008</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>351</v>
@@ -3159,19 +3159,19 @@
         <v>373205</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>338277</v>
+        <v>338974</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>415945</v>
+        <v>409650</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1638574960525393</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1485219544206734</v>
+        <v>0.1488282812431274</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1826226624788265</v>
+        <v>0.179858649925701</v>
       </c>
     </row>
     <row r="38">
@@ -3188,19 +3188,19 @@
         <v>977663</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>942664</v>
+        <v>942122</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>1012056</v>
+        <v>1010514</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.7105748178018465</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.685137028801995</v>
+        <v>0.6847431673637357</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.7355721422975993</v>
+        <v>0.7344512556434565</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>546</v>
@@ -3209,19 +3209,19 @@
         <v>590152</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>559301</v>
+        <v>560634</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>618795</v>
+        <v>620001</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6544557428176576</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6202432212112061</v>
+        <v>0.6217215309081292</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.686219647249186</v>
+        <v>0.6875571341638983</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1467</v>
@@ -3230,19 +3230,19 @@
         <v>1567815</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1522117</v>
+        <v>1515969</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1615510</v>
+        <v>1611207</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.6883564123387467</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.6682922689137329</v>
+        <v>0.665592967169786</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.709297008289367</v>
+        <v>0.7074078934879804</v>
       </c>
     </row>
     <row r="39">
@@ -3578,19 +3578,19 @@
         <v>50691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39036</v>
+        <v>38969</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62872</v>
+        <v>62084</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3809918847579268</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2933893551813818</v>
+        <v>0.2928890382919234</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4725403924785218</v>
+        <v>0.4666183454632703</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -3599,19 +3599,19 @@
         <v>29617</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20839</v>
+        <v>20932</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39596</v>
+        <v>39794</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2959591176988471</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2082403162149262</v>
+        <v>0.2091691494988746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3956824749968809</v>
+        <v>0.3976609735466523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -3620,19 +3620,19 @@
         <v>80308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>66836</v>
+        <v>66077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>96026</v>
+        <v>96395</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3444905733667871</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2867016378833334</v>
+        <v>0.2834446845876671</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4119182158610872</v>
+        <v>0.4134975637045591</v>
       </c>
     </row>
     <row r="5">
@@ -3649,19 +3649,19 @@
         <v>18578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11862</v>
+        <v>11005</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29899</v>
+        <v>28456</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1396315091504772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08915034747726151</v>
+        <v>0.08271077280072332</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2247177509504506</v>
+        <v>0.2138754533283644</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -3670,19 +3670,19 @@
         <v>24626</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16719</v>
+        <v>16168</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33415</v>
+        <v>34387</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2460843017618301</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.167077683874642</v>
+        <v>0.1615649130037119</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3339162040495265</v>
+        <v>0.3436294274603932</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -3691,19 +3691,19 @@
         <v>43204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31538</v>
+        <v>31114</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55168</v>
+        <v>56180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1853276174385175</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1352875384348551</v>
+        <v>0.1334689437752868</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2366494373915771</v>
+        <v>0.2409912470202673</v>
       </c>
     </row>
     <row r="6">
@@ -3720,19 +3720,19 @@
         <v>63782</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50015</v>
+        <v>52184</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>75379</v>
+        <v>76068</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.479376606091596</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3759081134907323</v>
+        <v>0.3922112539327126</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.566545862881269</v>
+        <v>0.5717171266384731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>44</v>
@@ -3741,19 +3741,19 @@
         <v>45828</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>36254</v>
+        <v>35389</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>55409</v>
+        <v>56115</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4579565805393228</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3622857293044135</v>
+        <v>0.3536434893088872</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5537052267633762</v>
+        <v>0.5607550847832398</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -3762,19 +3762,19 @@
         <v>109609</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>94017</v>
+        <v>93747</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>124948</v>
+        <v>124883</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4701818091946954</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4032974076756662</v>
+        <v>0.4021399315617909</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5359816637607872</v>
+        <v>0.5357018905690962</v>
       </c>
     </row>
     <row r="7">
@@ -3866,19 +3866,19 @@
         <v>38830</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>29172</v>
+        <v>28746</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>52132</v>
+        <v>51431</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2280146852091218</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1712981163455413</v>
+        <v>0.1687980265049802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3061239789363611</v>
+        <v>0.3020075688091731</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -3887,19 +3887,19 @@
         <v>28627</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20236</v>
+        <v>19890</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>38438</v>
+        <v>38697</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2518244947164882</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1780062882491456</v>
+        <v>0.1749675064114005</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3381238589323823</v>
+        <v>0.3404053915669307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>64</v>
@@ -3908,19 +3908,19 @@
         <v>67458</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>54508</v>
+        <v>53718</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>82116</v>
+        <v>84494</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.237546104798983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1919446453147671</v>
+        <v>0.1891631292404637</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2891646357566842</v>
+        <v>0.2975371823230838</v>
       </c>
     </row>
     <row r="9">
@@ -3937,19 +3937,19 @@
         <v>39740</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29603</v>
+        <v>29134</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>51696</v>
+        <v>51954</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2333574466878745</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.173831698842322</v>
+        <v>0.1710770487421649</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3035648611441318</v>
+        <v>0.305080612423601</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>25</v>
@@ -3958,19 +3958,19 @@
         <v>25616</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17037</v>
+        <v>17930</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>34787</v>
+        <v>36891</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2253384543415829</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1498712017451034</v>
+        <v>0.157722001875222</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3060086840978585</v>
+        <v>0.3245176004724628</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>61</v>
@@ -3979,19 +3979,19 @@
         <v>65357</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51023</v>
+        <v>50908</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>79772</v>
+        <v>79724</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2301473252160188</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1796724907589884</v>
+        <v>0.179268599780632</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2809109386853428</v>
+        <v>0.2807426096833824</v>
       </c>
     </row>
     <row r="10">
@@ -4008,19 +4008,19 @@
         <v>91727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>78379</v>
+        <v>78307</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>104024</v>
+        <v>104729</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5386278681030037</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4602478079790358</v>
+        <v>0.4598282304259589</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6108390794311409</v>
+        <v>0.61498065399017</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -4029,19 +4029,19 @@
         <v>59436</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49206</v>
+        <v>48848</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70689</v>
+        <v>70038</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5228370509419289</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4328451296726017</v>
+        <v>0.429701310194938</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6218286623638111</v>
+        <v>0.6160966326992349</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -4050,19 +4050,19 @@
         <v>151163</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>134497</v>
+        <v>133204</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>167396</v>
+        <v>168882</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5323065699849981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4736178697929085</v>
+        <v>0.4690652602298513</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5894697150556324</v>
+        <v>0.5947028104452277</v>
       </c>
     </row>
     <row r="11">
@@ -4154,19 +4154,19 @@
         <v>30673</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21788</v>
+        <v>22364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40250</v>
+        <v>41340</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2442352017294417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.173490022659046</v>
+        <v>0.1780735524631637</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3204914954319396</v>
+        <v>0.3291667273502267</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>22</v>
@@ -4175,19 +4175,19 @@
         <v>20811</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13555</v>
+        <v>13474</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>28623</v>
+        <v>29179</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2467772007521583</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1607288482046798</v>
+        <v>0.1597681631833191</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3394001881165395</v>
+        <v>0.3459987680448085</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>53</v>
@@ -4196,19 +4196,19 @@
         <v>51485</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>40561</v>
+        <v>40104</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>63715</v>
+        <v>65002</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2452564143705753</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1932200095231322</v>
+        <v>0.1910404116570502</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.303518426970412</v>
+        <v>0.3096504774933235</v>
       </c>
     </row>
     <row r="13">
@@ -4225,19 +4225,19 @@
         <v>40736</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>30521</v>
+        <v>31250</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51067</v>
+        <v>51332</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3243624785955577</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2430243877702603</v>
+        <v>0.2488287121457755</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.406621510935207</v>
+        <v>0.4087273996316362</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -4246,19 +4246,19 @@
         <v>26345</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18591</v>
+        <v>18948</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>35627</v>
+        <v>35119</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3123876309822926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2204497734464412</v>
+        <v>0.2246781816912481</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4224557189753298</v>
+        <v>0.4164345608940631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>70</v>
@@ -4267,19 +4267,19 @@
         <v>67081</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54067</v>
+        <v>54451</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>81900</v>
+        <v>80846</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3195517506412856</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2575577958884354</v>
+        <v>0.2593855125794992</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3901431925555037</v>
+        <v>0.3851222615043444</v>
       </c>
     </row>
     <row r="14">
@@ -4296,19 +4296,19 @@
         <v>54179</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43625</v>
+        <v>43170</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>65909</v>
+        <v>64852</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4314023196750006</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3473597233753966</v>
+        <v>0.343739347655508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5247986999432508</v>
+        <v>0.5163817773233957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -4317,19 +4317,19 @@
         <v>37177</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28018</v>
+        <v>28748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46453</v>
+        <v>46083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4408351682655491</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3322250670868465</v>
+        <v>0.3408855960239565</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5508281594597366</v>
+        <v>0.5464417115590351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>94</v>
@@ -4338,19 +4338,19 @@
         <v>91356</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>77697</v>
+        <v>78855</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104497</v>
+        <v>104776</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4351918349881391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3701231344732708</v>
+        <v>0.3756410859016738</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4977900427331181</v>
+        <v>0.4991180401092203</v>
       </c>
     </row>
     <row r="15">
@@ -4442,19 +4442,19 @@
         <v>17881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11245</v>
+        <v>10740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27243</v>
+        <v>26917</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1593930216121399</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1002411071320005</v>
+        <v>0.09574238450475202</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2428545377876542</v>
+        <v>0.239946261941153</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -4463,19 +4463,19 @@
         <v>18053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11622</v>
+        <v>11067</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27649</v>
+        <v>26428</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2205401788372006</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1419708711915414</v>
+        <v>0.1351978581113939</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.337757974358549</v>
+        <v>0.3228480612788598</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>34</v>
@@ -4484,19 +4484,19 @@
         <v>35934</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25964</v>
+        <v>25247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>47411</v>
+        <v>48740</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1851890427367827</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1338064488422625</v>
+        <v>0.1301141838682672</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2443378762045743</v>
+        <v>0.2511855124536166</v>
       </c>
     </row>
     <row r="17">
@@ -4513,19 +4513,19 @@
         <v>12590</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7392</v>
+        <v>6960</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>20673</v>
+        <v>21041</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1122289640091153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0658952268580535</v>
+        <v>0.06204189162509627</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1842846572725</v>
+        <v>0.1875625489235255</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -4534,19 +4534,19 @@
         <v>7790</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3244</v>
+        <v>3542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15186</v>
+        <v>15216</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09515883264867583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03963439916456268</v>
+        <v>0.04326757080247785</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1855134767034594</v>
+        <v>0.1858846338515328</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -4555,19 +4555,19 @@
         <v>20379</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12496</v>
+        <v>12413</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>30019</v>
+        <v>30667</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.105027624009717</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06439806402133354</v>
+        <v>0.06396958104253542</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1547080695277713</v>
+        <v>0.1580463116375982</v>
       </c>
     </row>
     <row r="18">
@@ -4584,19 +4584,19 @@
         <v>81709</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71714</v>
+        <v>72317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>90769</v>
+        <v>91347</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7283780143787447</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.6392730795834248</v>
+        <v>0.6446537559598894</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8091405979237515</v>
+        <v>0.8142910776784777</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -4605,19 +4605,19 @@
         <v>56016</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46600</v>
+        <v>47043</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>64122</v>
+        <v>64742</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6843009885141236</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5692695112773118</v>
+        <v>0.5746805752328484</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7833258978301029</v>
+        <v>0.7908954110029</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>130</v>
@@ -4626,19 +4626,19 @@
         <v>137726</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>125272</v>
+        <v>124802</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>150755</v>
+        <v>150413</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7097833332535002</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6456032179002803</v>
+        <v>0.6431810638814743</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7769303635608658</v>
+        <v>0.7751697088233905</v>
       </c>
     </row>
     <row r="19">
@@ -4730,19 +4730,19 @@
         <v>12003</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6590</v>
+        <v>6260</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>20055</v>
+        <v>19902</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1483154182850648</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08143267901039189</v>
+        <v>0.07735017156990312</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2478079693591251</v>
+        <v>0.2459212298701688</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>13</v>
@@ -4751,19 +4751,19 @@
         <v>12425</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7007</v>
+        <v>6966</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18883</v>
+        <v>19143</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2241979234633308</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.126444453888732</v>
+        <v>0.1256916316973476</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3407423360015562</v>
+        <v>0.3454206865649602</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -4772,19 +4772,19 @@
         <v>24428</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16857</v>
+        <v>16889</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35181</v>
+        <v>34626</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1791576554528687</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1236323636301284</v>
+        <v>0.1238668093623852</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2580221427600505</v>
+        <v>0.2539538615659602</v>
       </c>
     </row>
     <row r="21">
@@ -4801,19 +4801,19 @@
         <v>20889</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13411</v>
+        <v>13753</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>29138</v>
+        <v>29233</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2581122281017753</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1657140733641436</v>
+        <v>0.1699331325637164</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3600405260526951</v>
+        <v>0.3612155130824385</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>14</v>
@@ -4822,19 +4822,19 @@
         <v>13084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7738</v>
+        <v>8315</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>19746</v>
+        <v>20122</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2360957965248925</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1396246891198578</v>
+        <v>0.1500340358805153</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3563110843219128</v>
+        <v>0.363087360402611</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -4843,19 +4843,19 @@
         <v>33973</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>24007</v>
+        <v>24321</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44360</v>
+        <v>43447</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2491637095639684</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1760741445481359</v>
+        <v>0.1783709020938082</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3253464969103403</v>
+        <v>0.3186450607827259</v>
       </c>
     </row>
     <row r="22">
@@ -4872,19 +4872,19 @@
         <v>48038</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38969</v>
+        <v>38607</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>57255</v>
+        <v>56774</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5935723536131599</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4815117725194751</v>
+        <v>0.4770422367739061</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7074660373870217</v>
+        <v>0.7015227094990188</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -4893,19 +4893,19 @@
         <v>29909</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23253</v>
+        <v>23033</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36636</v>
+        <v>37214</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5397062800117767</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4195876626039033</v>
+        <v>0.4156172735059026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6610903630258353</v>
+        <v>0.6715136201737784</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>80</v>
@@ -4914,19 +4914,19 @@
         <v>77947</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>66550</v>
+        <v>67338</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>88748</v>
+        <v>89495</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.571678634983163</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4880891600244734</v>
+        <v>0.4938667788740142</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6508921707079282</v>
+        <v>0.6563716742588662</v>
       </c>
     </row>
     <row r="23">
@@ -5018,19 +5018,19 @@
         <v>26543</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>18512</v>
+        <v>18313</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35866</v>
+        <v>35612</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2469027880262132</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1721976010831962</v>
+        <v>0.1703502208927586</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3336285635131819</v>
+        <v>0.3312709856647802</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>23</v>
@@ -5039,19 +5039,19 @@
         <v>22289</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15271</v>
+        <v>14988</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>30892</v>
+        <v>30594</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2949511698098932</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.202077711131189</v>
+        <v>0.1983391173137038</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4087920614598121</v>
+        <v>0.4048574707818558</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>49</v>
@@ -5060,19 +5060,19 @@
         <v>48832</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>38602</v>
+        <v>38083</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>62592</v>
+        <v>61795</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2667363199625662</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2108559477154844</v>
+        <v>0.2080252238597033</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.341899628449391</v>
+        <v>0.3375451772516597</v>
       </c>
     </row>
     <row r="25">
@@ -5089,19 +5089,19 @@
         <v>29334</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20831</v>
+        <v>21113</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>40197</v>
+        <v>39953</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2728702739782255</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1937766521908132</v>
+        <v>0.1963952151997637</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3739226416391003</v>
+        <v>0.3716463887589821</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>27</v>
@@ -5110,19 +5110,19 @@
         <v>26225</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>18402</v>
+        <v>18646</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34429</v>
+        <v>34793</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3470429972175241</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2435139247793547</v>
+        <v>0.2467448571880787</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4556086815276659</v>
+        <v>0.460418693793395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>55</v>
@@ -5131,19 +5131,19 @@
         <v>55560</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>43683</v>
+        <v>43681</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>69570</v>
+        <v>68822</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3034874773170605</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2386120647907665</v>
+        <v>0.2386036482764984</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3800139157380766</v>
+        <v>0.3759282096315908</v>
       </c>
     </row>
     <row r="26">
@@ -5160,19 +5160,19 @@
         <v>51625</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41586</v>
+        <v>41349</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>61685</v>
+        <v>61942</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4802269379955613</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3868404065010533</v>
+        <v>0.3846307362685145</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5738062531875929</v>
+        <v>0.5761921973865948</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -5181,19 +5181,19 @@
         <v>27054</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18973</v>
+        <v>18586</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>34759</v>
+        <v>35372</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3580058329725828</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2510673515594728</v>
+        <v>0.2459508140569826</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.459971228093098</v>
+        <v>0.4680819218166652</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>76</v>
@@ -5202,19 +5202,19 @@
         <v>78680</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65379</v>
+        <v>64876</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>92155</v>
+        <v>90942</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.4297762027203733</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3571236583337559</v>
+        <v>0.3543749413456673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5033848275901821</v>
+        <v>0.4967603767602772</v>
       </c>
     </row>
     <row r="27">
@@ -5306,19 +5306,19 @@
         <v>142537</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>124171</v>
+        <v>120246</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>163874</v>
+        <v>162162</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3971766866783717</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3460020114234845</v>
+        <v>0.3350634447363309</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.456632909743066</v>
+        <v>0.4518612410725246</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>125</v>
@@ -5327,19 +5327,19 @@
         <v>129907</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>113092</v>
+        <v>111033</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>147255</v>
+        <v>145958</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4576669071483023</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3984266315825865</v>
+        <v>0.3911738508272973</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5187835332775497</v>
+        <v>0.514217016547066</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>250</v>
@@ -5348,19 +5348,19 @@
         <v>272444</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>246961</v>
+        <v>248305</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>301337</v>
+        <v>300301</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4238910902829865</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.384243432380684</v>
+        <v>0.3863336715065737</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.468846395419382</v>
+        <v>0.4672342446882842</v>
       </c>
     </row>
     <row r="29">
@@ -5377,19 +5377,19 @@
         <v>88350</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72380</v>
+        <v>70280</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>105855</v>
+        <v>106407</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2461853291585424</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2016871398331029</v>
+        <v>0.1958334536961498</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.294964189692346</v>
+        <v>0.2965022648383594</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>56</v>
@@ -5398,19 +5398,19 @@
         <v>57361</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>45414</v>
+        <v>45094</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>72565</v>
+        <v>72592</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2020860666352538</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1599957238868205</v>
+        <v>0.1588665178827652</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2556508423909463</v>
+        <v>0.2557451079286823</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>133</v>
@@ -5419,19 +5419,19 @@
         <v>145711</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>122591</v>
+        <v>123297</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>167861</v>
+        <v>169201</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2267096934514678</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1907368174685304</v>
+        <v>0.191836697377455</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2611727015690681</v>
+        <v>0.2632580806821814</v>
       </c>
     </row>
     <row r="30">
@@ -5448,19 +5448,19 @@
         <v>127988</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>109465</v>
+        <v>111327</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>147024</v>
+        <v>148885</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3566379841630859</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3050225884659642</v>
+        <v>0.3102107927260474</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4096802092249283</v>
+        <v>0.4148671930513818</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>92</v>
@@ -5469,19 +5469,19 @@
         <v>96578</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>81544</v>
+        <v>80860</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>112697</v>
+        <v>114048</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3402470262164439</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2872829721726429</v>
+        <v>0.2848714808783036</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.397036963304614</v>
+        <v>0.401795405125046</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>202</v>
@@ -5490,19 +5490,19 @@
         <v>224566</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>198943</v>
+        <v>199381</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>248816</v>
+        <v>246202</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3493992162655457</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3095328763850262</v>
+        <v>0.3102131442533919</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3871295558479084</v>
+        <v>0.38306233452105</v>
       </c>
     </row>
     <row r="31">
@@ -5594,19 +5594,19 @@
         <v>24437</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16104</v>
+        <v>15520</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>35625</v>
+        <v>35837</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07452243791350317</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.04911195352362348</v>
+        <v>0.04732878738669649</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1086403835745689</v>
+        <v>0.1092888862551382</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>36</v>
@@ -5615,19 +5615,19 @@
         <v>35959</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>26232</v>
+        <v>25668</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>48130</v>
+        <v>47906</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1515939893913749</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1105890609683927</v>
+        <v>0.108208693233599</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2029010417223063</v>
+        <v>0.2019568081557193</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>59</v>
@@ -5636,19 +5636,19 @@
         <v>60396</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>47161</v>
+        <v>46104</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>77163</v>
+        <v>76844</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1068729215871007</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08345285529864616</v>
+        <v>0.08158223749686425</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1365423157296747</v>
+        <v>0.1359788834261225</v>
       </c>
     </row>
     <row r="33">
@@ -5665,19 +5665,19 @@
         <v>52955</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>41682</v>
+        <v>40983</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>67392</v>
+        <v>67662</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.1614900853793524</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1271125926421715</v>
+        <v>0.1249801563274876</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.205517409039895</v>
+        <v>0.2063406884823192</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>37</v>
@@ -5686,19 +5686,19 @@
         <v>38817</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>28350</v>
+        <v>28059</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>50947</v>
+        <v>50845</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1636429683844084</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1195171581504749</v>
+        <v>0.1182883439148817</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2147800494156402</v>
+        <v>0.2143499105207037</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>89</v>
@@ -5707,19 +5707,19 @@
         <v>91772</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>74787</v>
+        <v>74875</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>111332</v>
+        <v>111107</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.1623937496390011</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.132337719808757</v>
+        <v>0.1324940729056796</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.1970056176661034</v>
+        <v>0.196607476775952</v>
       </c>
     </row>
     <row r="34">
@@ -5736,19 +5736,19 @@
         <v>250521</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>233651</v>
+        <v>233745</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>264160</v>
+        <v>264998</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7639874767071445</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7125409708357971</v>
+        <v>0.7128261269927882</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.805579777589145</v>
+        <v>0.8081342887385027</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>155</v>
@@ -5757,19 +5757,19 @@
         <v>162431</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>146286</v>
+        <v>147420</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>175653</v>
+        <v>176766</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6847630422242167</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6167008497984019</v>
+        <v>0.6214845648992031</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.740504551842471</v>
+        <v>0.7451973696073847</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>394</v>
@@ -5778,19 +5778,19 @@
         <v>412951</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>390966</v>
+        <v>390409</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>435101</v>
+        <v>433647</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7307333287738982</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6918287563717724</v>
+        <v>0.6908432239720267</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7699281104454417</v>
+        <v>0.7673551891780837</v>
       </c>
     </row>
     <row r="35">
@@ -5882,19 +5882,19 @@
         <v>343595</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>310307</v>
+        <v>310766</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>378156</v>
+        <v>376439</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2425940892849737</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2190915323097553</v>
+        <v>0.2194150384677822</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2669959674422638</v>
+        <v>0.2657834390605909</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>293</v>
@@ -5903,19 +5903,19 @@
         <v>297689</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>267777</v>
+        <v>271659</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>326753</v>
+        <v>328715</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2884629814004714</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2594779409927973</v>
+        <v>0.2632397326101238</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3166267874905435</v>
+        <v>0.3185282604490743</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>606</v>
@@ -5924,19 +5924,19 @@
         <v>641283</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>595754</v>
+        <v>600635</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>684101</v>
+        <v>689459</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.261928116416238</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2433321168799105</v>
+        <v>0.2453254466744883</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2794167233181518</v>
+        <v>0.2816053054998268</v>
       </c>
     </row>
     <row r="37">
@@ -5953,19 +5953,19 @@
         <v>303172</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>274480</v>
+        <v>273334</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>338889</v>
+        <v>336286</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2140535988257846</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1937955574062273</v>
+        <v>0.192986362623363</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2392714991365917</v>
+        <v>0.2374333203977403</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>217</v>
@@ -5974,19 +5974,19 @@
         <v>219865</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>195482</v>
+        <v>193616</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>248411</v>
+        <v>248014</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2130507774776809</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1894237968990433</v>
+        <v>0.1876158275493797</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2407128147558331</v>
+        <v>0.2403274285245648</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>502</v>
@@ -5995,19 +5995,19 @@
         <v>523036</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>479633</v>
+        <v>480235</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>563387</v>
+        <v>563254</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.21363090330693</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1959031975847818</v>
+        <v>0.1961488359148043</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2301117620927632</v>
+        <v>0.2300575050809266</v>
       </c>
     </row>
     <row r="38">
@@ -6024,19 +6024,19 @@
         <v>769570</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>733383</v>
+        <v>727107</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>808844</v>
+        <v>805339</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.5433523118892418</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.517802795942401</v>
+        <v>0.5133715444175843</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.5710816611873898</v>
+        <v>0.5686065816856961</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>498</v>
@@ -6045,19 +6045,19 @@
         <v>514429</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>481004</v>
+        <v>482813</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>544310</v>
+        <v>547828</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4984862411218476</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4660970683113707</v>
+        <v>0.4678504071012143</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5274416857564889</v>
+        <v>0.5308504896066265</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>1217</v>
@@ -6066,19 +6066,19 @@
         <v>1283998</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>1234110</v>
+        <v>1236747</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>1333995</v>
+        <v>1331480</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5244409802768321</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.504064522178588</v>
+        <v>0.5051413142133426</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.544861890790082</v>
+        <v>0.5438345952080162</v>
       </c>
     </row>
     <row r="39">
